--- a/getlocation/bin/Debug/Source.xlsx
+++ b/getlocation/bin/Debug/Source.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>347/13 Chu Văn An, phường 11, Bình Thạnh</t>
   </si>
@@ -46,270 +46,6 @@
   </si>
   <si>
     <t>Huyện Bình Chánh, Hồ Chí Minh, Xã An Phú Tây, c10/18 ql1a, , Huyện Bình Chánh</t>
-  </si>
-  <si>
-    <t>Quận 7, Hồ Chí Minh, Phường Phú Mỹ, Era Town A5 3302 , Quận 7</t>
-  </si>
-  <si>
-    <t>C822 CHUNG CƯ EHOME 2, đường D3, Phường Phước Long B, Quận 9, Hồ Chí Minh , Phường Phước Long B , Quận 9</t>
-  </si>
-  <si>
-    <t>39/11 Đường 102-La Xuan Oai, Phường Tăng Nhơn Phú A, Quận 9, Hồ Chí Minh , Phường Tăng Nhơn Phú A , Quận 9</t>
-  </si>
-  <si>
-    <t>22A đường Linh Trung Phường Linh Trung, Quận Thủ Đức, Hồ Chí Minh , Phường Linh Trung , Quận Thủ Đức , Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>178 Lê THáNH TôN, QUậN 1, HCM , VN</t>
-  </si>
-  <si>
-    <t>768 Nguyễn Thị Định, Phường Thạnh Mỹ Lợi, Quận 2, Hồ Chí Minh , Phường Thạnh Mỹ Lợi , Quận 2</t>
-  </si>
-  <si>
-    <t>Lô I3-8B, đường N2, Khu Công Nghệ Cao Phường Tân Phú, Quận 9, Hồ Chí Minh , Phường Tân Phú , Quận 9 , Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>Số 6 đường số 15, KDC Hương Lộ 5, Phường An Lạc, Quận Bình Tân Hồ Chí Minh, Quận Bình Tân, Phường An Lạc , Phường An Lạc , Quận Bình Tân , Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>A11/6 Nguyễn Hữu Trí thị trấn tân túc Huyện Bình Chánh Tp.hcm, Thị trấn Tân Túc, Huyện Bình Chánh, Hồ Chí Minh , Thị trấn Tân Túc , Huyện Bình Chánh</t>
-  </si>
-  <si>
-    <t>293/6 Bạch Đằng, Phường 15, Quận Bình Thạnh, Tp Hồ Chí Minh, Phường 15, Quận Bình Thạnh, Thành Phố Hồ Chí Minh Thành Phố Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>chung cư Sunview, đường Cây Keo, Tam Phú, Thủ Đức, Phường Tam Phú, Quận Thủ Đức, Hồ Chí Minh , Phường Tam Phú , Quận Thủ Đức</t>
-  </si>
-  <si>
-    <t>A9/32C5 Ấp 1, Xã Vĩnh Lộc B, Huyện Bình Chánh, Xã Vĩnh Lộc B, Huyện Bình Chánh, Hồ Chí Minh , Xã Vĩnh Lộc B , Huyện Bình Chánh</t>
-  </si>
-  <si>
-    <t>2380 phạm thế hiển f6 -q8, Phường 06, Quận 8, Thành Phố Hồ Chí Minh Thành Phố Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>2/1 A ấp 7, Xã Xuân Thới Thượng, Huyện Hóc Môn, Hồ Chí Minh , Xã Xuân Thới Thượng , Huyện Hóc Môn</t>
-  </si>
-  <si>
-    <t>12B Trịnh Hoài Đức, Đống Đa, Hà Nội, Đống Đa, 100000 , Quận Đống Đa</t>
-  </si>
-  <si>
-    <t>778k/2 Nguyễn Kiệm Phường 4 Phú Nhuận, Phường 04, Quận Phú Nhuận, Thành Phố Hồ Chí Minh Thành Phố Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>Số 26, Ngách 1, Ngõ 2, Mễ trì Thương (Ngõ 2 Đại lộ Thăng Long)-Hà Nội-Quận Nam Từ Liêm-Phường Mễ Trì, Nam Từ Liêm, 100000 , Quận Nam Từ Liêm</t>
-  </si>
-  <si>
-    <t>497, Hòa Hảo,, Phường 07, Quận 10, Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>89/11 Duong so 59, Phường 14, Quận Gò Vấp, Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>77/27 tan lap 2 phuong hiep phu, Hồ Chí Minh, Quận 9, Phường Hiệp Phú , Quận 9</t>
-  </si>
-  <si>
-    <t>20 Nguyễn Thượng Hiền, Phường 05, Quận 3, Thành Phố Hồ Chí Minh Thành Phố Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>số 95 ngõ 136 đường Cầu Diễn-Hà Nội-Quận Bắc Từ Liêm-Phường Minh Khai196 Nguyễn Huệ, Tp Hưng Yên, thành phố hưng yên , Quận Bắc Từ Liêm</t>
-  </si>
-  <si>
-    <t>Phòng 3,lầu 27,Block A2 Chung cư Era town, Phường Phú Mỹ, Quận 7, Hồ Chí Minh , Phường Phú Mỹ , Quận 7</t>
-  </si>
-  <si>
-    <t>Số 3, đường 3 Tháng 2 Hồ Chí Minh, Quận 10, Phường 11 , Phường 11 , Quận 10 , Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>88/10/1 Trần Văn Quang, Phường 10, Quận Tân Bình, Thành Phố Hồ Chí Minh Thành Phố Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>53/3/16 đường số 8, P. Trường Thạnh, Q.9, Hồ Chí Minh, 700000 , Quận 9</t>
-  </si>
-  <si>
-    <t>72 Lê Thánh Tôn , Phường Bến Nghé, Quận 1, Thành Phố Hồ Chí Minh Thành Phố Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>344 Cao Thắng Nối dài, P12, q10, Phường 12, Quận 10, Thành Phố Hồ Chí Minh Thành Phố Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>287/4/13, Đường An Phú Đông, Khu Phố 4, Phường An Phú Đông, Quận12-Hồ Chí Minh36/212A đường số 12-Hồ Chí Minh-Quận Thủ Đức-Phường Trường Thọ, Hồ Chí Minh , Quận 12</t>
-  </si>
-  <si>
-    <t>1387 Bến Bình Đông ( Sơn Á Đông ), Phường 15, Quận 8, Hồ Chí Minh , Phường 15 , Quận 8</t>
-  </si>
-  <si>
-    <t>190 vĩnh viễn, Phường 05, Quận 10, Thành Phố Hồ Chí Minh Thành Phố Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>75/5/16 đường 51 , Phường 14, Quận Gò Vấp, Thành Phố Hồ Chí Minh Thành Phố Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>248A Nơ Trang Long, Phường 12, Quận Bình Thạnh, Thành Phố Hồ Chí Minh Thành Phố Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>137/4E ấp Tân Thới 2, xã Tân Hiệp, Xã Tân Hiệp, Huyện Hóc Môn, Hồ Chí Minh , Xã Tân Hiệp , Huyện Hóc Môn</t>
-  </si>
-  <si>
-    <t>361 Đường Thạnh Xuân 25, Phường Thạnh Xuân, Quận 12, Thành Phố Hồ Chí Minh Thành Phố Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>521/14 TA28 (đầu Hẻm Là Số 199 Lê Thị Riêng), Phường Thới An, Quận 12, Hồ Chí Minh , Phường Thới An , Quận 12</t>
-  </si>
-  <si>
-    <t>64 nguyễn đình chiểu, Phường Đa Kao, Quận 1, Thành Phố Hồ Chí Minh Thành Phố Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>654 tỉnh lộ 15, ấp bến đình xã nhuận đức huyện củ chi tp hcm, Xã Nhuận Đức, Huyện Củ Chi, Hồ Chí Minh , Xã Nhuận Đức , Huyện Củ Chi</t>
-  </si>
-  <si>
-    <t>SN 18, ngách 145/49 Quan Nhân, Nhân Chính, Thanh Xuân, Hà Nội, Phường Nhân Chính, Quận Thanh Xuân, Hà Nội</t>
-  </si>
-  <si>
-    <t>702 /126/6 Lê Đức Tho, Phường 15, Quận Gò Vấp, Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>phòng 207, Tòa nhà CT3, Ngõ 32, đường Hoàng Công Chất, Phường Phú Diễn, Quận Bắc Từ Liêm, Hà Nội</t>
-  </si>
-  <si>
-    <t>676 đường Tên Lửa Phường Bình Trị Đông B Quận Bình Tân Hồ Chí Minh VN HỒ CHÍ MINH BÌNH TÂN</t>
-  </si>
-  <si>
-    <t>Số 2, tổ 15, yên sở, hoàng mai, Hà Nội Quận Hoàng Mai Hà Nội VN HÀ NỘI HOÀNG MAI</t>
-  </si>
-  <si>
-    <t>Tầng 6 - Toà nhà Prima, Số 22 Mai Anh Tuấn, Phường Ô Chợ Dừa Quận Đống Đa Hà Nội VN HÀ NỘI ĐỐNG ĐA</t>
-  </si>
-  <si>
-    <t>108 Khuông Việt, Phú Trung Quận Tân Phú Hồ Chí Minh VN HỒ CHÍ MINH TÂN PHÚ</t>
-  </si>
-  <si>
-    <t>547 kha vạn cân phường linh đông Quận Thủ Đức Hồ Chí Minh VN HỒ CHÍ MINH THỦ ĐỨC</t>
-  </si>
-  <si>
-    <t>156/8 cộng hòa, p12 Quận Tân Bình Hồ Chí Minh VN HỒ CHÍ MINH TÂN BÌNH</t>
-  </si>
-  <si>
-    <t>158 đường 475 tổ 19 khu phố 5 Quận 9 Hồ Chí Minh VN HỒ CHÍ MINH 9</t>
-  </si>
-  <si>
-    <t>85 Khiếu Năng Tĩnh, Phường An Lạc A, Bỉnh Tân, TPHCM Quận Bình Tân Hồ Chí Minh VN HỒ CHÍ MINH BÌNH TÂN</t>
-  </si>
-  <si>
-    <t>75/ TL28 P.Thạnh Lộc Q12 Quận 12 Hồ Chí Minh VN HỒ CHÍ MINH 12</t>
-  </si>
-  <si>
-    <t>15/4A ấp Mỹ Hòa 1 , Xã Trung Chánh, Huyện Hóc Môn Huyện Hóc Môn Hồ Chí Minh VN HỒ CHÍ MINH HÓC MÔN</t>
-  </si>
-  <si>
-    <t>225-261A Lê Văn Khương Phường Hiệp Thành Quận 12 Quận 12 Hồ Chí Minh VN HỒ CHÍ MINH 12</t>
-  </si>
-  <si>
-    <t>69 Lý Tự Trọng, Phường Bến Thành Quận 1 Hồ Chí Minh VN HỒ CHÍ MINH 1</t>
-  </si>
-  <si>
-    <t>123 đường 26 tháng 3 Quận Bình Tân Hồ Chí Minh VN HỒ CHÍ MINH BÌNH TÂN</t>
-  </si>
-  <si>
-    <t>997.lo gom f8 q6 Quận 6 Hồ Chí Minh VN HỒ CHÍ MINH 6</t>
-  </si>
-  <si>
-    <t>436B/77 3/2 f12 q10 Quận 10 Hồ Chí Minh VN HỒ CHÍ MINH 10</t>
-  </si>
-  <si>
-    <t>192/5 Bùi Văn Ba Quận 7 Hồ Chí Minh VN HỒ CHÍ MINH 7</t>
-  </si>
-  <si>
-    <t>763/2/3 trường chinh, phường tây thạnh, quận tân phú, hồ chí minh Quận Tân Phú Hồ Chí Minh VN HỒ CHÍ MINH TÂN PHÚ</t>
-  </si>
-  <si>
-    <t>92d38 khu dân cư savimex gò ô môi phú thuận Quận 7 Hồ Chí Minh VN HỒ CHÍ MINH 7</t>
-  </si>
-  <si>
-    <t>14A Đường 6 Tổ 1 Khu Phố 3 Phường Phước Bình Quận 9 Hồ Chí Minh VN HỒ CHÍ MINH 9</t>
-  </si>
-  <si>
-    <t>502/13/2 Thống Nhất Quận Gò Vấp Hồ Chí Minh VN HỒ CHÍ MINH GÒ VẤP</t>
-  </si>
-  <si>
-    <t>A1-13-02 cc gia hoa . p phuoc long b. q9 Quận 9 Hồ Chí Minh VN HỒ CHÍ MINH 9</t>
-  </si>
-  <si>
-    <t>D4/3B khu phố 4, thị trấn Tân Túc, đường Nguyễn Hữu Trí Huyện Bình Chánh Hồ Chí Minh VN HỒ CHÍ MINH BÌNH CHÁNH</t>
-  </si>
-  <si>
-    <t>11/1b ấp 2 xã xuân thới thượng Huyện Hóc Môn Hồ Chí Minh VN HỒ CHÍ MINH HÓC MÔN</t>
-  </si>
-  <si>
-    <t>27/35/5 đường số 9 P16 Quận Gò Vấp Quận Gò Vấp Hồ Chí Minh VN HỒ CHÍ MINH GÒ VẤP</t>
-  </si>
-  <si>
-    <t>146/32 Nguyễn Chế Nghĩa p12 q8 Quận 8 Hồ Chí Minh VN HỒ CHÍ MINH 8</t>
-  </si>
-  <si>
-    <t>385a lê văn việt , p.tnp a , q.9 tp.hcm Quận 9 Hồ Chí Minh VN HỒ CHÍ MINH 9</t>
-  </si>
-  <si>
-    <t>Chung cư 4s Linh Đông - Đường số 30 -P Linh Đông Quận Thủ Đức Hồ Chí Minh VN HỒ CHÍ MINH THỦ ĐỨC</t>
-  </si>
-  <si>
-    <t>45/30 Dương Bá Trạc quận 8 Quận 8 Hồ Chí Minh VN HỒ CHÍ MINH 8</t>
-  </si>
-  <si>
-    <t>212B Xô Viết Nghệ Tĩnh, P21, quận Bình Thạnh Quận Bình Thạnh Hồ Chí Minh VN HỒ CHÍ MINH BÌNH THẠNH</t>
-  </si>
-  <si>
-    <t>58 Võ Thị Sáu Q1 Quận 1 Hồ Chí Minh VN HỒ CHÍ MINH 1</t>
-  </si>
-  <si>
-    <t>20B5 Hà Huy Giáp, phường Thạnh Lộc Quận 12 Hồ Chí Minh VN HỒ CHÍ MINH 12</t>
-  </si>
-  <si>
-    <t>246 cống quỳnh quận 1 TP HCM Quận 1 Hồ Chí Minh VN HỒ CHÍ MINH 1</t>
-  </si>
-  <si>
-    <t>138/16 Ngô Quyền Phường 5 Quận 10 Hồ Chí Minh VN HỒ CHÍ MINH 10</t>
-  </si>
-  <si>
-    <t>349/176 Lê Đại Hành phường 13 Quận 11 Hồ Chí Minh VN HỒ CHÍ MINH 11</t>
-  </si>
-  <si>
-    <t>111D Lý Chính Thắng, Phường 7, Quận 3 Quận 3 Hồ Chí Minh VN HỒ CHÍ MINH 3</t>
-  </si>
-  <si>
-    <t>506 nguyễn đình chiểu Quận 3 Hồ Chí Minh VN HỒ CHÍ MINH 3</t>
-  </si>
-  <si>
-    <t>353 Nguyen Chi Thanh, Phuong 15, Quan 5 Quận 5 Hồ Chí Minh VN HỒ CHÍ MINH 5</t>
-  </si>
-  <si>
-    <t>221/1/23 Đất Thánh P6 Quận Tân Bình Quận Tân Bình Hồ Chí Minh VN HỒ CHÍ MINH TÂN BÌNH</t>
-  </si>
-  <si>
-    <t>17 Đường số 4, Phong Phú, Bình Chánh, Hồ Chí Minh Huyện Bình Chánh Hồ Chí Minh VN HỒ CHÍ MINH BÌNH CHÁNH</t>
-  </si>
-  <si>
-    <t>16 duong 44, phuong Thao Dien Quận 2 Hồ Chí Minh VN HỒ CHÍ MINH 2</t>
-  </si>
-  <si>
-    <t>273/19 Lạc Long Quân, Phường 03, Quận 11, HCM Quận 11 Hồ Chí Minh VN HỒ CHÍ MINH 11</t>
-  </si>
-  <si>
-    <t>244 Cống Quỳnh, P. Phạm Ngũ Lão, Q.1, Ho Chi Minh City, 244 Cống Quỳnh, P. Phạm Ngũ Lão, Q.1, Ho Chi Minh City Quận 1 Hồ Chí Minh VN HỒ CHÍ MINH 1</t>
-  </si>
-  <si>
-    <t>2A Phan Thúc Duyện, p4 Quận Tân Bình Hồ Chí Minh VN HỒ CHÍ MINH TÂN BÌNH</t>
-  </si>
-  <si>
-    <t>179 Cao Thắng (nối dài), phường 12, quận 10, TP.HCM Quận 10 Hồ Chí Minh VN HỒ CHÍ MINH 10</t>
-  </si>
-  <si>
-    <t>203 Hùng Vương P9 Q5 Quận 5 Hồ Chí Minh VN HỒ CHÍ MINH 5</t>
-  </si>
-  <si>
-    <t>117 Trương Định Hồ Chí Minh, Quận 3, Phường 07 , Phường 07 , Quận 3 , Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>5/8 đường 27 Hồ Chí Minh, Quận 2, Phường Bình An , Phường Bình An , Quận 2 , Hồ Chí Minh</t>
   </si>
 </sst>
 </file>
@@ -652,7 +388,7 @@
   <dimension ref="A1:A99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A99"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,454 +439,274 @@
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A15" s="1"/>
     </row>
     <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A17" s="1"/>
     </row>
     <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A18" s="1"/>
     </row>
     <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A19" s="1"/>
     </row>
     <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A20" s="1"/>
     </row>
     <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A21" s="1"/>
     </row>
     <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A22" s="1"/>
     </row>
     <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A23" s="1"/>
     </row>
     <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A24" s="1"/>
     </row>
     <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A25" s="1"/>
     </row>
     <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A26" s="1"/>
     </row>
     <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A27" s="1"/>
     </row>
     <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A28" s="1"/>
     </row>
     <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A29" s="1"/>
     </row>
     <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A30" s="1"/>
     </row>
     <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A31" s="1"/>
     </row>
     <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A33" s="1"/>
     </row>
     <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="A34" s="1"/>
     </row>
     <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A35" s="1"/>
     </row>
     <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="A36" s="1"/>
     </row>
     <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="A37" s="1"/>
     </row>
     <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="A38" s="1"/>
     </row>
     <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A39" s="1"/>
     </row>
     <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="A40" s="1"/>
     </row>
     <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="A41" s="1"/>
     </row>
     <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="A42" s="1"/>
     </row>
     <row r="43" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="A43" s="1"/>
     </row>
     <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="A44" s="1"/>
     </row>
     <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="A45" s="1"/>
     </row>
     <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="A46" s="1"/>
     </row>
     <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="A47" s="1"/>
     </row>
     <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="A48" s="1"/>
     </row>
     <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="A49" s="1"/>
     </row>
     <row r="50" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="A50" s="1"/>
     </row>
     <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="A51" s="1"/>
     </row>
     <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="A52" s="1"/>
     </row>
     <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="A53" s="1"/>
     </row>
     <row r="54" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="A54" s="1"/>
     </row>
     <row r="55" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="A55" s="1"/>
     </row>
     <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="A56" s="1"/>
     </row>
     <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="A57" s="1"/>
     </row>
     <row r="58" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="A58" s="1"/>
     </row>
     <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="A59" s="1"/>
     </row>
     <row r="60" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="A60" s="1"/>
     </row>
     <row r="61" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="A61" s="1"/>
     </row>
     <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="A62" s="1"/>
     </row>
     <row r="63" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="A63" s="1"/>
     </row>
     <row r="64" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="A64" s="1"/>
     </row>
     <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="A65" s="1"/>
     </row>
     <row r="66" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="A66" s="1"/>
     </row>
     <row r="67" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="A67" s="1"/>
     </row>
     <row r="68" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="A68" s="1"/>
     </row>
     <row r="69" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="A69" s="1"/>
     </row>
     <row r="70" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="A70" s="1"/>
     </row>
     <row r="71" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="A71" s="1"/>
     </row>
     <row r="72" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="A72" s="1"/>
     </row>
     <row r="73" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="A73" s="1"/>
     </row>
     <row r="74" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="A74" s="1"/>
     </row>
     <row r="75" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="A75" s="1"/>
     </row>
     <row r="76" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="A76" s="1"/>
     </row>
     <row r="77" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="A77" s="1"/>
     </row>
     <row r="78" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="A78" s="1"/>
     </row>
     <row r="79" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="A79" s="1"/>
     </row>
     <row r="80" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="A80" s="1"/>
     </row>
     <row r="81" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="A81" s="1"/>
     </row>
     <row r="82" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="A82" s="1"/>
     </row>
     <row r="83" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="A83" s="1"/>
     </row>
     <row r="84" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="A84" s="1"/>
     </row>
     <row r="85" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="A85" s="1"/>
     </row>
     <row r="86" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="A86" s="1"/>
     </row>
     <row r="87" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="A87" s="1"/>
     </row>
     <row r="88" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="A88" s="1"/>
     </row>
     <row r="89" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="A89" s="1"/>
     </row>
     <row r="90" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="A90" s="1"/>
     </row>
     <row r="91" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="A91" s="1"/>
     </row>
     <row r="92" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="A92" s="1"/>
     </row>
     <row r="93" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="A93" s="1"/>
     </row>
     <row r="94" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="A94" s="1"/>
     </row>
     <row r="95" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="A95" s="1"/>
     </row>
     <row r="96" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="A96" s="1"/>
     </row>
     <row r="97" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="A97" s="1"/>
     </row>
     <row r="98" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="A98" s="1"/>
     </row>
     <row r="99" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A99" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/getlocation/bin/Debug/Source.xlsx
+++ b/getlocation/bin/Debug/Source.xlsx
@@ -19,33 +19,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>347/13 Chu Văn An, phường 11, Bình Thạnh</t>
-  </si>
-  <si>
-    <t>373/33, Lý thường kiệt, phường 9, tân binh, tphcm,Hồ Chí Minh,Quận Tân Bình,Phường 9 , Quận Tân Bình</t>
-  </si>
-  <si>
-    <t>Số 52 ngõ 204 kim Giang, Phường Kim Giang, Quận Thanh Xuân, Hà Nội</t>
-  </si>
-  <si>
-    <t>Cali Tower, 464-466-468 Phan Xích Long, Phường 02, Quận Phú Nhuận, Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>171 , võ văn ngân, Phường Linh Chiểu, Quận Thủ Đức, Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>275/110 - Quang Trung - Phường 10 - Quận Gò Vấp,Hồ Chí Minh,Quận Gò Vấp,Phường 10 , Quận Gò Vấp</t>
-  </si>
-  <si>
-    <t>37 NGUYỄN BÁ TÒNG, P. TÂN THÀNH, Q. TÂN PHÚ. HCM, TÂN PHÚ, Hồ Chí Minh37 NGUYỄN BÁ TÒNG, P. TÂN THÀNH, Q. TÂN PHÚ. HCM Hồ Chí Minh, TÂN PHÚ , Quận Tân Phú</t>
-  </si>
-  <si>
-    <t>312 Nguyễn Thượng Hiền Hồ Chí Minh, Quận Phú Nhuận, Phường 05 , Phường 05 , Quận Phú Nhuận , Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>Huyện Bình Chánh, Hồ Chí Minh, Xã An Phú Tây, c10/18 ql1a, , Huyện Bình Chánh</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>758 nguyen binh, Hồ Chí Minh, Huyện Nhà Bè, Xã Nhơn Đức , Huyện Nhà Bè</t>
+  </si>
+  <si>
+    <t>137A Nguyễn Văn Cừ - Long Biên - Hà Nội, Phường Ngọc Lâm, Quận Long Biên, Hà Nội</t>
+  </si>
+  <si>
+    <t>Lữ Đoàn 45 , Cổ Đông , Sơn Tây, Hà nội, Hà Nội, Thành Phố Sơn Tây, Xã Cổ Đông , Thành Phố Sơn Tây</t>
+  </si>
+  <si>
+    <t>Số 46 tổ 12, Phường Sài Đồng, Quận Long Biên, Hà Nội</t>
+  </si>
+  <si>
+    <t>số 8 ngõ 191 phạm văn đồng, Phường Xuân Đỉnh, Quận Bắc Từ Liêm, Hà Nội</t>
+  </si>
+  <si>
+    <t>60/1, Xã Bà Điểm, Huyện Hóc Môn, Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>Cầu cảng số 12, đường hồ học lãm, p16, q8, tp.hcm, Phường 16, Quận 8, Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>Số 4 tổ 51 cụm 8 Phú thượng Tây Hồ ( Chân cầu Nhật Tân ), Phường Phú Thượng, Quận Tây Hồ, Hà Nội</t>
+  </si>
+  <si>
+    <t>so12 duong ht25 phuong hiep thanh q12.cty hoang vinh ha, Phường Hiệp Thành, Quận 12, Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>Số 17 vạn phúc, Phường Kim Mã, Quận Ba Đình, Hà Nội</t>
+  </si>
+  <si>
+    <t>Số 16 phố viên, gần viện bảo vệ Thực vật, Phường Cổ Nhuế 2, Quận Bắc Từ Liêm, Hà Nội</t>
+  </si>
+  <si>
+    <t>68 Đường 1a Tổ3 kp Giản Dân phường Long Thạnh Mỹ Q9, Phường Long Thạnh Mỹ, Quận 9, Hồ Chí Minh</t>
   </si>
 </sst>
 </file>
@@ -385,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A99"/>
+  <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,13 +448,19 @@
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
@@ -707,6 +722,9 @@
     </row>
     <row r="99" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
+    </row>
+    <row r="100" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
